--- a/benchmarks/benchmark.xlsx
+++ b/benchmarks/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javier/Documents/GitHub/LLMBenchmark/benchmarks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9BE00E-4218-BB44-953A-966097E6556C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DCCCA8-FA3A-AE40-B112-70FC5E0719F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6720" yWindow="-19360" windowWidth="25980" windowHeight="17440" xr2:uid="{11647BAE-5484-8246-937E-C610CEBF0821}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="114">
   <si>
     <t>IOS</t>
   </si>
@@ -303,6 +303,81 @@
   </si>
   <si>
     <t>show isis route</t>
+  </si>
+  <si>
+    <t>show log</t>
+  </si>
+  <si>
+    <t>show chassis</t>
+  </si>
+  <si>
+    <t>show router interface</t>
+  </si>
+  <si>
+    <t>show router interface &lt;interface_name&gt;</t>
+  </si>
+  <si>
+    <t>show router interface &lt;interface_name&gt; detail</t>
+  </si>
+  <si>
+    <t>show router interface description</t>
+  </si>
+  <si>
+    <t>show router route-table</t>
+  </si>
+  <si>
+    <t>show router bgp summary</t>
+  </si>
+  <si>
+    <t>show router bgp routes &lt;prefix&gt;</t>
+  </si>
+  <si>
+    <t>show router bgp routes aspath-regex &lt;as-exp&gt;</t>
+  </si>
+  <si>
+    <t>show router bgp neighbor &lt;neighbor&gt; received-routes</t>
+  </si>
+  <si>
+    <t>show router bgp neighbor &lt;neighbor&gt; advertised-routes</t>
+  </si>
+  <si>
+    <t>show router isis adjacency</t>
+  </si>
+  <si>
+    <t>show router isis interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show router isis routes </t>
+  </si>
+  <si>
+    <t>show router isis topology</t>
+  </si>
+  <si>
+    <t>show router ospf neighbor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show router ospf interface </t>
+  </si>
+  <si>
+    <t>show router ospf routes</t>
+  </si>
+  <si>
+    <t>show router ospf database</t>
+  </si>
+  <si>
+    <t>show system cpu</t>
+  </si>
+  <si>
+    <t>show router policy &lt;name&gt;</t>
+  </si>
+  <si>
+    <t>show router policy prefix-list &lt;name&gt;</t>
+  </si>
+  <si>
+    <t>show router arp</t>
+  </si>
+  <si>
+    <t>show system information</t>
   </si>
 </sst>
 </file>
@@ -665,7 +740,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G30"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,7 +785,9 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
@@ -727,7 +804,9 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
@@ -742,7 +821,9 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
@@ -757,7 +838,9 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -772,7 +855,9 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
@@ -787,7 +872,9 @@
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
@@ -802,7 +889,9 @@
       <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
@@ -817,7 +906,9 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
@@ -832,7 +923,9 @@
       <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
@@ -847,7 +940,9 @@
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
@@ -862,7 +957,9 @@
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
@@ -877,7 +974,9 @@
       <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
@@ -892,7 +991,9 @@
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
@@ -907,7 +1008,9 @@
       <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
@@ -922,7 +1025,9 @@
       <c r="D16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
@@ -937,7 +1042,9 @@
       <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
@@ -952,7 +1059,9 @@
       <c r="D18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
@@ -967,7 +1076,9 @@
       <c r="D19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
@@ -982,7 +1093,9 @@
       <c r="D20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
@@ -997,7 +1110,9 @@
       <c r="D21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
@@ -1012,7 +1127,9 @@
       <c r="D22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
@@ -1027,7 +1144,9 @@
       <c r="D23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
@@ -1042,7 +1161,9 @@
       <c r="D24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
@@ -1057,7 +1178,9 @@
       <c r="D25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
@@ -1072,7 +1195,9 @@
       <c r="D26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -1087,7 +1212,9 @@
       <c r="D27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
@@ -1102,7 +1229,9 @@
       <c r="D28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
@@ -1117,7 +1246,9 @@
       <c r="D29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
@@ -1132,7 +1263,9 @@
       <c r="D30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
